--- a/airesds.xlsx
+++ b/airesds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\liftvan_ypf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA6E9D2-4B7F-44C8-9C29-ECF8CDE0421D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C33F7F-FFB5-459A-B62B-66F15865A396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1440" windowWidth="20490" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12030" yWindow="-16200" windowWidth="10890" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1015,13 +1015,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1041,10 +1042,10 @@
         <v>Abu Dhabi - AEAUH</v>
       </c>
       <c r="B2" s="2">
-        <v>5972</v>
+        <v>5422</v>
       </c>
       <c r="C2" s="2">
-        <v>7386</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,10 +1054,10 @@
         <v>Alexandria (EGALY)</v>
       </c>
       <c r="B3" s="2">
-        <v>2869</v>
+        <v>2319</v>
       </c>
       <c r="C3" s="2">
-        <v>3407</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1065,10 +1066,10 @@
         <v>Algeciras (ESALG)</v>
       </c>
       <c r="B4" s="2">
-        <v>2513</v>
+        <v>1963</v>
       </c>
       <c r="C4" s="2">
-        <v>2529</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1077,10 +1078,10 @@
         <v>Altamira</v>
       </c>
       <c r="B5" s="2">
-        <v>4665</v>
+        <v>4115</v>
       </c>
       <c r="C5" s="2">
-        <v>4584</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1089,10 +1090,10 @@
         <v>Antwerp (BEANR)</v>
       </c>
       <c r="B6" s="2">
-        <v>2727</v>
+        <v>2177</v>
       </c>
       <c r="C6" s="2">
-        <v>3029</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1101,10 +1102,10 @@
         <v>Arica (CLARI)</v>
       </c>
       <c r="B7" s="2">
-        <v>6498</v>
+        <v>5948</v>
       </c>
       <c r="C7" s="2">
-        <v>7184</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1113,22 +1114,22 @@
         <v>Ashdod (ILASH)</v>
       </c>
       <c r="B8" s="2">
-        <v>2253</v>
+        <v>1703</v>
       </c>
       <c r="C8" s="2">
-        <v>2771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>[1]Base!A9</f>
         <v>*Atlanta (USATL) (Inland- Via Charleston)</v>
       </c>
       <c r="B9" s="2">
-        <v>6821</v>
+        <v>6271</v>
       </c>
       <c r="C9" s="2">
-        <v>7118</v>
+        <v>6398</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1137,10 +1138,10 @@
         <v>Auckland (NZAKL)</v>
       </c>
       <c r="B10" s="2">
-        <v>4424</v>
+        <v>3874</v>
       </c>
       <c r="C10" s="2">
-        <v>4882</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1149,10 +1150,10 @@
         <v>Baltimore (USBAL)</v>
       </c>
       <c r="B11" s="2">
-        <v>4464</v>
+        <v>3914</v>
       </c>
       <c r="C11" s="2">
-        <v>4999</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1161,10 +1162,10 @@
         <v>*Balboa (PABLB)</v>
       </c>
       <c r="B12" s="2">
-        <v>7019</v>
+        <v>6469</v>
       </c>
       <c r="C12" s="2">
-        <v>7374</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1173,22 +1174,22 @@
         <v>Barcelona (ESBCN)</v>
       </c>
       <c r="B13" s="2">
-        <v>2934</v>
+        <v>2384</v>
       </c>
       <c r="C13" s="2">
-        <v>3412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>[1]Base!A14</f>
         <v>*BASSENS/GIRONDE (FRBAS)</v>
       </c>
-      <c r="B14" s="2">
-        <v>550</v>
+      <c r="B14" s="2" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="C14" s="2">
-        <v>4258</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,8 +1197,12 @@
         <f>[1]Base!A15</f>
         <v>Bogota (COBOG)</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C15" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
@@ -1205,10 +1210,10 @@
         <v>Bremerhaven (DEBRV)</v>
       </c>
       <c r="B16" s="2">
-        <v>2757</v>
+        <v>2207</v>
       </c>
       <c r="C16" s="2">
-        <v>3058</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1217,34 +1222,34 @@
         <v>Brisbane (AUBNE)</v>
       </c>
       <c r="B17" s="2">
-        <v>3624</v>
+        <v>3074</v>
       </c>
       <c r="C17" s="2">
-        <v>3832</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>[1]Base!A18</f>
         <v>*Budapest (HUBUD) (Inland Rail - Via Hamburg)</v>
       </c>
       <c r="B18" s="2">
-        <v>3402</v>
+        <v>2852</v>
       </c>
       <c r="C18" s="2">
-        <v>3969</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>[1]Base!A19</f>
         <v>Buenaventura (COBUN)</v>
       </c>
       <c r="B19" s="2">
-        <v>4692</v>
+        <v>4142</v>
       </c>
       <c r="C19" s="2">
-        <v>5516</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,10 +1258,10 @@
         <v xml:space="preserve"> Busan, KR - (KRPUS)</v>
       </c>
       <c r="B20" s="2">
-        <v>2391</v>
+        <v>1841</v>
       </c>
       <c r="C20" s="2">
-        <v>2681</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1265,10 +1270,10 @@
         <v>*CAGLIARI (ITCAG)</v>
       </c>
       <c r="B21" s="2">
-        <v>3684</v>
+        <v>3134</v>
       </c>
       <c r="C21" s="2">
-        <v>4562</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1277,10 +1282,10 @@
         <v>Callao (PECLL)</v>
       </c>
       <c r="B22" s="2">
-        <v>2922</v>
+        <v>2372</v>
       </c>
       <c r="C22" s="2">
-        <v>5348</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1289,10 +1294,10 @@
         <v>Cartagena Port Colombia (COCTG)</v>
       </c>
       <c r="B23" s="2">
-        <v>4237</v>
+        <v>3687</v>
       </c>
       <c r="C23" s="2">
-        <v>4506</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1301,10 +1306,10 @@
         <v>Casablanca</v>
       </c>
       <c r="B24" s="2">
-        <v>3083</v>
+        <v>2533</v>
       </c>
       <c r="C24" s="2">
-        <v>3660</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,10 +1318,10 @@
         <v>Caucedo (DOCAU)</v>
       </c>
       <c r="B25" s="2">
-        <v>5427</v>
+        <v>4877</v>
       </c>
       <c r="C25" s="2">
-        <v>5786</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1325,22 +1330,22 @@
         <v>Charleston (USCHS)</v>
       </c>
       <c r="B26" s="2">
-        <v>6016</v>
+        <v>5466</v>
       </c>
       <c r="C26" s="2">
-        <v>6233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>[1]Base!A27</f>
         <v>*CHARLOTTE, NC (USCLT)  (Via Charleston)</v>
       </c>
       <c r="B27" s="2">
-        <v>6818</v>
+        <v>6268</v>
       </c>
       <c r="C27" s="2">
-        <v>7115</v>
+        <v>6395</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1349,10 +1354,10 @@
         <v>*Chicago, IL (USCHI) - (via NYC)</v>
       </c>
       <c r="B28" s="2">
-        <v>6908</v>
+        <v>6358</v>
       </c>
       <c r="C28" s="2">
-        <v>7215</v>
+        <v>6495</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1361,10 +1366,10 @@
         <v>*Cleveland (USCLE)</v>
       </c>
       <c r="B29" s="2">
-        <v>6998</v>
+        <v>6448</v>
       </c>
       <c r="C29" s="2">
-        <v>7315</v>
+        <v>6595</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1373,10 +1378,10 @@
         <v>Constanta (ROCND)</v>
       </c>
       <c r="B30" s="2">
-        <v>3134</v>
+        <v>2584</v>
       </c>
       <c r="C30" s="2">
-        <v>3712</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1385,22 +1390,22 @@
         <v>Copenhagen (DKCPH)</v>
       </c>
       <c r="B31" s="2">
-        <v>3057</v>
+        <v>2507</v>
       </c>
       <c r="C31" s="2">
-        <v>4324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>[1]Base!A32</f>
         <v>*Dallas (USDAL) (inland incluido, via Houston)</v>
       </c>
       <c r="B32" s="2">
-        <v>5887</v>
+        <v>5337</v>
       </c>
       <c r="C32" s="2">
-        <v>6104</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1409,10 +1414,10 @@
         <v>*Denver (USDEN) (Via Houston)</v>
       </c>
       <c r="B33" s="2">
-        <v>6873</v>
+        <v>6323</v>
       </c>
       <c r="C33" s="2">
-        <v>9685</v>
+        <v>8965</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1421,10 +1426,10 @@
         <v>*Detroit (USDET)</v>
       </c>
       <c r="B34" s="2">
-        <v>5998</v>
+        <v>5448</v>
       </c>
       <c r="C34" s="2">
-        <v>6315</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,22 +1438,22 @@
         <v>Dublin (IEDUB)</v>
       </c>
       <c r="B35" s="2">
-        <v>3867</v>
+        <v>3317</v>
       </c>
       <c r="C35" s="2">
-        <v>5027</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
         <f>[1]Base!A36</f>
         <v>*Edmonton Terminal (via Panama / Vancouver / inland incluido) [USEDC KY]</v>
       </c>
       <c r="B36" s="2">
-        <v>8968</v>
+        <v>8418</v>
       </c>
       <c r="C36" s="2">
-        <v>9429</v>
+        <v>8724</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1457,10 +1462,10 @@
         <v>*Estocolmo (SESTO)</v>
       </c>
       <c r="B37" s="2">
-        <v>4283</v>
+        <v>3733</v>
       </c>
       <c r="C37" s="2">
-        <v>5459</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,10 +1474,10 @@
         <v>Felixstowe (GBFXT)</v>
       </c>
       <c r="B38" s="2">
-        <v>3729</v>
+        <v>3179</v>
       </c>
       <c r="C38" s="2">
-        <v>4742</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,10 +1486,10 @@
         <v>Fos sur Mer (FRFOS)</v>
       </c>
       <c r="B39" s="2">
-        <v>3014</v>
+        <v>2464</v>
       </c>
       <c r="C39" s="2">
-        <v>3612</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1493,10 +1498,10 @@
         <v>Fremantle (AUFRE)</v>
       </c>
       <c r="B40" s="2">
-        <v>4024</v>
+        <v>3474</v>
       </c>
       <c r="C40" s="2">
-        <v>4732</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,10 +1510,10 @@
         <v>Genoa (ITGOA)</v>
       </c>
       <c r="B41" s="2">
-        <v>2934</v>
+        <v>2384</v>
       </c>
       <c r="C41" s="2">
-        <v>3243</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1517,10 +1522,10 @@
         <v>Gdynia (PLGDY)</v>
       </c>
       <c r="B42" s="2">
-        <v>3141</v>
+        <v>2591</v>
       </c>
       <c r="C42" s="2">
-        <v>3426</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1529,10 +1534,10 @@
         <v>Guayaquil (ECGYE)</v>
       </c>
       <c r="B43" s="2">
-        <v>4833</v>
+        <v>4283</v>
       </c>
       <c r="C43" s="2">
-        <v>5348</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1541,10 +1546,10 @@
         <v>Haifa (ILHFA)</v>
       </c>
       <c r="B44" s="2">
-        <v>3276</v>
+        <v>2726</v>
       </c>
       <c r="C44" s="2">
-        <v>3896</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1553,10 +1558,10 @@
         <v>Halifax Port, Canada (via Cartagena)</v>
       </c>
       <c r="B45" s="2">
-        <v>4633</v>
+        <v>4083</v>
       </c>
       <c r="C45" s="2">
-        <v>5798</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,10 +1570,10 @@
         <v>Hamburg (DEHAM)</v>
       </c>
       <c r="B46" s="2">
-        <v>2757</v>
+        <v>2207</v>
       </c>
       <c r="C46" s="2">
-        <v>3058</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1577,10 +1582,10 @@
         <v>Houston (USHOU)</v>
       </c>
       <c r="B47" s="2">
-        <v>5016</v>
+        <v>4466</v>
       </c>
       <c r="C47" s="2">
-        <v>5233</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1589,22 +1594,22 @@
         <v>Incheon (KRINC)</v>
       </c>
       <c r="B48" s="2">
-        <v>2351</v>
+        <v>1801</v>
       </c>
       <c r="C48" s="2">
-        <v>2681</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="str">
         <f>[1]Base!A49</f>
         <v>Jacksonville  FL (USJAX)</v>
       </c>
       <c r="B49" s="2">
-        <v>6016</v>
+        <v>5466</v>
       </c>
       <c r="C49" s="2">
-        <v>6233</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1613,10 +1618,10 @@
         <v>Jebel Ali (AEJEA)</v>
       </c>
       <c r="B50" s="2">
-        <v>3730</v>
+        <v>3180</v>
       </c>
       <c r="C50" s="2">
-        <v>4292</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,10 +1630,10 @@
         <v>Karachi (PKKHI)</v>
       </c>
       <c r="B51" s="2">
-        <v>4673</v>
+        <v>4123</v>
       </c>
       <c r="C51" s="2">
-        <v>7660</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,10 +1642,10 @@
         <v>Keelung (TWKEL)</v>
       </c>
       <c r="B52" s="2">
-        <v>3303</v>
+        <v>2753</v>
       </c>
       <c r="C52" s="2">
-        <v>4013</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1649,10 +1654,10 @@
         <v>Klang (MYPKG)</v>
       </c>
       <c r="B53" s="2">
-        <v>3917</v>
+        <v>3367</v>
       </c>
       <c r="C53" s="2">
-        <v>4916</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1661,10 +1666,10 @@
         <v>La Guaira  (VELAG)</v>
       </c>
       <c r="B54" s="2">
-        <v>6512</v>
+        <v>5962</v>
       </c>
       <c r="C54" s="2">
-        <v>7209</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1673,10 +1678,10 @@
         <v>Le Havre (FRLEH)</v>
       </c>
       <c r="B55" s="2">
-        <v>2757</v>
+        <v>2207</v>
       </c>
       <c r="C55" s="2">
-        <v>3058</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1685,20 +1690,22 @@
         <v>Leixões, Portugal</v>
       </c>
       <c r="B56" s="2">
-        <v>2980</v>
-      </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2430</v>
+      </c>
+      <c r="C56" s="2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="str">
         <f>[1]Base!A57</f>
         <v>Lagos (NGLOS), Nigeria</v>
       </c>
-      <c r="B57" s="2">
-        <v>550</v>
-      </c>
-      <c r="C57" s="2">
-        <v>700</v>
+      <c r="B57" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C57" s="2" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1707,10 +1714,10 @@
         <v>Lisboa (PTLIS)</v>
       </c>
       <c r="B58" s="2">
-        <v>2984</v>
+        <v>2434</v>
       </c>
       <c r="C58" s="2">
-        <v>3562</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,10 +1726,10 @@
         <v>Lyttelton (NZLYT)</v>
       </c>
       <c r="B59" s="2">
-        <v>4624</v>
+        <v>4074</v>
       </c>
       <c r="C59" s="2">
-        <v>5282</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1731,10 +1738,10 @@
         <v>Livorno (ITLIV)</v>
       </c>
       <c r="B60" s="2">
-        <v>2684</v>
+        <v>2134</v>
       </c>
       <c r="C60" s="2">
-        <v>3143</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1743,34 +1750,34 @@
         <v>Louisville, KY</v>
       </c>
       <c r="B61" s="2">
-        <v>4991</v>
+        <v>4441</v>
       </c>
       <c r="C61" s="2">
-        <v>5321</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="str">
         <f>[1]Base!A62</f>
         <v>London Gateway (GBLGP)</v>
       </c>
       <c r="B62" s="2">
-        <v>2726</v>
+        <v>2176</v>
       </c>
       <c r="C62" s="2">
-        <v>2996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="str">
         <f>[1]Base!A63</f>
         <v>*Long Beach CA.(USLGB) Inland incluido, Via Los Angeles</v>
       </c>
       <c r="B63" s="2">
-        <v>5911</v>
+        <v>5361</v>
       </c>
       <c r="C63" s="2">
-        <v>6307</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1779,10 +1786,10 @@
         <v>Los Angeles (USLAX)</v>
       </c>
       <c r="B64" s="2">
-        <v>5195</v>
+        <v>4645</v>
       </c>
       <c r="C64" s="2">
-        <v>5591</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1791,10 +1798,10 @@
         <v>*Louisiana (USLUA)</v>
       </c>
       <c r="B65" s="2">
-        <v>7574</v>
+        <v>7024</v>
       </c>
       <c r="C65" s="2">
-        <v>7961</v>
+        <v>7241</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1803,10 +1810,10 @@
         <v>*Madrid (ESMAD) (Via Valencia - Inland)</v>
       </c>
       <c r="B66" s="2">
-        <v>3414</v>
+        <v>2864</v>
       </c>
       <c r="C66" s="2">
-        <v>3892</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1815,22 +1822,22 @@
         <v>Malaga (ESAGP)</v>
       </c>
       <c r="B67" s="2">
-        <v>4408</v>
+        <v>3858</v>
       </c>
       <c r="C67" s="2">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="str">
         <f>[1]Base!A68</f>
         <v>Malmo (inland) (Puerto de descarga: Helsingborg)</v>
       </c>
       <c r="B68" s="2">
-        <v>3364</v>
+        <v>2814</v>
       </c>
       <c r="C68" s="2">
-        <v>3736</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1839,10 +1846,10 @@
         <v>Manila (PHMNL)</v>
       </c>
       <c r="B69" s="2">
-        <v>2757</v>
+        <v>2207</v>
       </c>
       <c r="C69" s="2">
-        <v>3066</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1851,22 +1858,22 @@
         <v>Manzanillo (PAMIT)</v>
       </c>
       <c r="B70" s="2">
-        <v>5427</v>
+        <v>4877</v>
       </c>
       <c r="C70" s="2">
-        <v>5786</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="str">
         <f>[1]Base!A71</f>
         <v>Manzanillo (MXZLO) (México)</v>
       </c>
       <c r="B71" s="2">
-        <v>6105</v>
+        <v>5555</v>
       </c>
       <c r="C71" s="2">
-        <v>7964</v>
+        <v>7244</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1875,22 +1882,22 @@
         <v>Melbourne</v>
       </c>
       <c r="B72" s="2">
-        <v>2588</v>
+        <v>2038</v>
       </c>
       <c r="C72" s="2">
-        <v>2815</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="str">
         <f>[1]Base!A73</f>
         <v>*Miami, FL (USMIA) (inland incluido, via Everglades)</v>
       </c>
       <c r="B73" s="2">
-        <v>6532</v>
+        <v>5982</v>
       </c>
       <c r="C73" s="2">
-        <v>6749</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1900,7 +1907,7 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2">
-        <v>4012</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1909,58 +1916,58 @@
         <v>Montoir DE BRETAGNE (FRMTX)</v>
       </c>
       <c r="B75" s="2">
-        <v>3591</v>
+        <v>3041</v>
       </c>
       <c r="C75" s="2">
-        <v>4715</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="str">
         <f>[1]Base!A76</f>
         <v>Montreal Port, CA (CAMTR)</v>
       </c>
       <c r="B76" s="2">
-        <v>6016</v>
+        <v>5466</v>
       </c>
       <c r="C76" s="2">
-        <v>6233</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="str">
         <f>[1]Base!A77</f>
         <v>Nairobi Terminal  (KENBO)</v>
       </c>
       <c r="B77" s="2">
-        <v>3500</v>
+        <v>2950</v>
       </c>
       <c r="C77" s="2">
-        <v>4521</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="str">
         <f>[1]Base!A78</f>
         <v>*Napoles NAPLES (ITNAP)</v>
       </c>
       <c r="B78" s="2">
-        <v>3084</v>
+        <v>2534</v>
       </c>
       <c r="C78" s="2">
-        <v>4212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="str">
         <f>[1]Base!A79</f>
         <v>Nassau Bahamas NEW PROVIDENCE ISLAND (BSNAS)</v>
       </c>
       <c r="B79" s="2">
-        <v>10194</v>
+        <v>9644</v>
       </c>
       <c r="C79" s="2">
-        <v>11910</v>
+        <v>11190</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1969,10 +1976,10 @@
         <v>*New Delhi , India via Mundra (INDEL)</v>
       </c>
       <c r="B80" s="2">
-        <v>6680</v>
+        <v>6130</v>
       </c>
       <c r="C80" s="2">
-        <v>8752</v>
+        <v>8032</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1981,10 +1988,10 @@
         <v>New Orleans (USMSY)</v>
       </c>
       <c r="B81" s="2">
-        <v>5016</v>
+        <v>4466</v>
       </c>
       <c r="C81" s="2">
-        <v>5233</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1993,10 +2000,10 @@
         <v>New York (USNYC)</v>
       </c>
       <c r="B82" s="2">
-        <v>6016</v>
+        <v>5466</v>
       </c>
       <c r="C82" s="2">
-        <v>6233</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,10 +2012,10 @@
         <v>Norfolk (USORF)</v>
       </c>
       <c r="B83" s="2">
-        <v>6016</v>
+        <v>5466</v>
       </c>
       <c r="C83" s="2">
-        <v>6233</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2017,10 +2024,10 @@
         <v>*Oakland (USOAK) (inland - via Houston)</v>
       </c>
       <c r="B84" s="2">
-        <v>6934</v>
+        <v>6384</v>
       </c>
       <c r="C84" s="2">
-        <v>7451</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2029,10 +2036,10 @@
         <v>Onne (NGONN)</v>
       </c>
       <c r="B85" s="2">
-        <v>7210</v>
+        <v>6660</v>
       </c>
       <c r="C85" s="2">
-        <v>8429</v>
+        <v>7709</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,10 +2048,10 @@
         <v>Oslo</v>
       </c>
       <c r="B86" s="2">
-        <v>3674</v>
+        <v>3124</v>
       </c>
       <c r="C86" s="2">
-        <v>4442</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2053,22 +2060,22 @@
         <v xml:space="preserve">*Panama city (PAPTY) </v>
       </c>
       <c r="B87" s="2">
-        <v>6007</v>
+        <v>5457</v>
       </c>
       <c r="C87" s="2">
-        <v>6366</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>5646</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="str">
         <f>[1]Base!A88</f>
         <v>*Perth (AUPER) Via Fremantle</v>
       </c>
       <c r="B88" s="2">
-        <v>4462</v>
-      </c>
-      <c r="C88" s="2">
-        <v>700</v>
+        <v>3912</v>
+      </c>
+      <c r="C88" s="2" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2077,34 +2084,34 @@
         <v>*Pittsburgh, PA (USPIT)(inland)</v>
       </c>
       <c r="B89" s="2">
-        <v>7369</v>
+        <v>6819</v>
       </c>
       <c r="C89" s="2">
-        <v>7680</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="str">
         <f>[1]Base!A90</f>
         <v xml:space="preserve"> *Portland  OR (USPDX) (inland incluido)</v>
       </c>
       <c r="B90" s="2">
-        <v>6016</v>
+        <v>5466</v>
       </c>
       <c r="C90" s="2">
-        <v>6233</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="str">
         <f>[1]Base!A91</f>
         <v>Port Everglades (USPEF)</v>
       </c>
       <c r="B91" s="2">
-        <v>6016</v>
+        <v>5466</v>
       </c>
       <c r="C91" s="2">
-        <v>6233</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2113,46 +2120,46 @@
         <v>*Prague (CZPRG) (via Hamburg)</v>
       </c>
       <c r="B92" s="2">
-        <v>3757</v>
+        <v>3207</v>
       </c>
       <c r="C92" s="2">
-        <v>4158</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="str">
         <f>[1]Base!A93</f>
         <v>Puerto de Lanzarote, Islas Canarias (Arrecife de lanzarote)</v>
       </c>
       <c r="B93" s="2">
-        <v>4708</v>
+        <v>4158</v>
       </c>
       <c r="C93" s="2">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>5095</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="str">
         <f>[1]Base!A94</f>
         <v>Puerto Barrios (GTPBR)</v>
       </c>
       <c r="B94" s="2">
-        <v>5465</v>
+        <v>4915</v>
       </c>
       <c r="C94" s="2">
-        <v>5824</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="str">
         <f>[1]Base!A95</f>
         <v>Puerto Cortes  (HNPCR)</v>
       </c>
       <c r="B95" s="2">
-        <v>5436</v>
+        <v>4886</v>
       </c>
       <c r="C95" s="2">
-        <v>5795</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2161,10 +2168,10 @@
         <v>Puerto Moin (CRPMN)</v>
       </c>
       <c r="B96" s="2">
-        <v>5054</v>
+        <v>4504</v>
       </c>
       <c r="C96" s="2">
-        <v>5503</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2173,10 +2180,10 @@
         <v>Puerto Limon (CRLIO)</v>
       </c>
       <c r="B97" s="2">
-        <v>4188</v>
+        <v>3638</v>
       </c>
       <c r="C97" s="2">
-        <v>4708</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2185,10 +2192,10 @@
         <v>Rabat</v>
       </c>
       <c r="B98" s="2">
-        <v>3760</v>
+        <v>3210</v>
       </c>
       <c r="C98" s="2">
-        <v>3960</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2197,10 +2204,10 @@
         <v>Rio de Janeiro (BRRIO)</v>
       </c>
       <c r="B99" s="2">
-        <v>2527</v>
+        <v>1977</v>
       </c>
       <c r="C99" s="2">
-        <v>2821</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2209,22 +2216,22 @@
         <v>Riyadh (SARUH)</v>
       </c>
       <c r="B100" s="2">
-        <v>3730</v>
+        <v>3180</v>
       </c>
       <c r="C100" s="2">
-        <v>4292</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="str">
         <f>[1]Base!A101</f>
         <v>*Roma (ITRMX) (via Salerno)</v>
       </c>
       <c r="B101" s="2">
-        <v>2365</v>
+        <v>1815</v>
       </c>
       <c r="C101" s="2">
-        <v>2586</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2233,10 +2240,10 @@
         <v>Rotterdam (NLRTM)</v>
       </c>
       <c r="B102" s="2">
-        <v>2757</v>
+        <v>2207</v>
       </c>
       <c r="C102" s="2">
-        <v>3058</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2245,22 +2252,22 @@
         <v>Salvador (BRSSA)</v>
       </c>
       <c r="B103" s="2">
-        <v>2476</v>
+        <v>1926</v>
       </c>
       <c r="C103" s="2">
-        <v>2328</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="str">
         <f>[1]Base!A104</f>
         <v>*Santiago (CLSCL) (inland)</v>
       </c>
       <c r="B104" s="2">
-        <v>5308</v>
+        <v>4758</v>
       </c>
       <c r="C104" s="2">
-        <v>5823</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2269,10 +2276,10 @@
         <v>Santos (BRSSZ)</v>
       </c>
       <c r="B105" s="2">
-        <v>2115</v>
+        <v>1565</v>
       </c>
       <c r="C105" s="2">
-        <v>2445</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2281,22 +2288,22 @@
         <v>San Antonio (CLSAI)</v>
       </c>
       <c r="B106" s="2">
-        <v>4833</v>
+        <v>4283</v>
       </c>
       <c r="C106" s="2">
-        <v>5348</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="str">
         <f>[1]Base!A107</f>
         <v>Santa Cruz Tenerife (ESSCT)</v>
       </c>
       <c r="B107" s="2">
-        <v>2256</v>
+        <v>1706</v>
       </c>
       <c r="C107" s="2">
-        <v>3697</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2305,22 +2312,22 @@
         <v>*Santo Domingo (Inland incluido) via Caucedo (DOSDQ)</v>
       </c>
       <c r="B108" s="2">
-        <v>5737</v>
+        <v>5187</v>
       </c>
       <c r="C108" s="2">
-        <v>6096</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="str">
         <f>[1]Base!A109</f>
         <v>*San Jose CR (CRSJO) (inland) (via Puerto Limon)</v>
       </c>
       <c r="B109" s="2">
-        <v>5997</v>
+        <v>5447</v>
       </c>
       <c r="C109" s="2">
-        <v>6356</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2329,10 +2336,10 @@
         <v>San Juan (PRSJU)</v>
       </c>
       <c r="B110" s="2">
-        <v>5465</v>
+        <v>4915</v>
       </c>
       <c r="C110" s="2">
-        <v>5824</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2341,10 +2348,10 @@
         <v>*Santo Tomas De Castilla (GTSTC)</v>
       </c>
       <c r="B111" s="2">
-        <v>5875</v>
+        <v>5325</v>
       </c>
       <c r="C111" s="2">
-        <v>6234</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2353,10 +2360,10 @@
         <v>SUAPE (BRSUA)</v>
       </c>
       <c r="B112" s="2">
-        <v>2997</v>
+        <v>2447</v>
       </c>
       <c r="C112" s="2">
-        <v>3826</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2365,10 +2372,10 @@
         <v>*Savannah (USSAV)</v>
       </c>
       <c r="B113" s="2">
-        <v>6952</v>
+        <v>6402</v>
       </c>
       <c r="C113" s="2">
-        <v>7169</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2377,10 +2384,10 @@
         <v>*Seatlle (USSEA)</v>
       </c>
       <c r="B114" s="2">
-        <v>9514</v>
+        <v>8964</v>
       </c>
       <c r="C114" s="2">
-        <v>10184</v>
+        <v>9464</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2389,10 +2396,10 @@
         <v>Shanghai (CNSHA)</v>
       </c>
       <c r="B115" s="2">
-        <v>2682</v>
+        <v>2132</v>
       </c>
       <c r="C115" s="2">
-        <v>3158</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2401,10 +2408,10 @@
         <v>Shuwaikh (KWSWK)</v>
       </c>
       <c r="B116" s="2">
-        <v>5172</v>
+        <v>4622</v>
       </c>
       <c r="C116" s="2">
-        <v>6686</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2413,22 +2420,22 @@
         <v>Singapore (SGSIN)</v>
       </c>
       <c r="B117" s="2">
-        <v>2644</v>
+        <v>2094</v>
       </c>
       <c r="C117" s="2">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="str">
         <f>[1]Base!A118</f>
         <v>Southampton (GBSOU)</v>
       </c>
       <c r="B118" s="2">
-        <v>3529</v>
+        <v>2979</v>
       </c>
       <c r="C118" s="2">
-        <v>4242</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2437,10 +2444,10 @@
         <v>Sydney (AUSYD)</v>
       </c>
       <c r="B119" s="2">
-        <v>3424</v>
+        <v>2874</v>
       </c>
       <c r="C119" s="2">
-        <v>3832</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2449,22 +2456,22 @@
         <v>Tauranga  (NZTRG)</v>
       </c>
       <c r="B120" s="2">
-        <v>4424</v>
+        <v>3874</v>
       </c>
       <c r="C120" s="2">
-        <v>4882</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="str">
         <f>[1]Base!A121</f>
         <v>*Toronto Terminal (inland - via New York) (USTOD)</v>
       </c>
       <c r="B121" s="2">
-        <v>7508</v>
+        <v>6958</v>
       </c>
       <c r="C121" s="2">
-        <v>7819</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2473,10 +2480,10 @@
         <v>Valencia (ESVLC)</v>
       </c>
       <c r="B122" s="2">
-        <v>2934</v>
+        <v>2384</v>
       </c>
       <c r="C122" s="2">
-        <v>3390</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2485,10 +2492,10 @@
         <v>Vancouver (CAVAN) (via Paraná)</v>
       </c>
       <c r="B123" s="2">
-        <v>7707</v>
+        <v>7157</v>
       </c>
       <c r="C123" s="2">
-        <v>8005</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2497,10 +2504,10 @@
         <v>Venecia</v>
       </c>
       <c r="B124" s="2">
-        <v>2923</v>
+        <v>2373</v>
       </c>
       <c r="C124" s="2">
-        <v>3390</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2509,10 +2516,10 @@
         <v>Veracruz (MXVER)</v>
       </c>
       <c r="B125" s="2">
-        <v>4665</v>
+        <v>4115</v>
       </c>
       <c r="C125" s="2">
-        <v>4584</v>
+        <v>3864</v>
       </c>
     </row>
   </sheetData>
